--- a/RubenCubanBoM.xlsx
+++ b/RubenCubanBoM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan_lytle\Desktop\RubenCuban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\herbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
   <si>
     <t>Ruben Cuban Part #</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>1/4" to 4mm(5/32) Fitting</t>
+  </si>
+  <si>
+    <t>RC-MECH-19</t>
+  </si>
+  <si>
+    <t>Snap Action Switch</t>
   </si>
 </sst>
 </file>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G29" si="0">F3*C3</f>
+        <f t="shared" ref="G3:G30" si="0">F3*C3</f>
         <v>0</v>
       </c>
     </row>
@@ -1278,13 +1284,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
@@ -1302,10 +1308,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1326,13 +1332,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
@@ -1350,13 +1356,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>102</v>
@@ -1374,10 +1380,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1398,58 +1404,58 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5">
-        <v>11.99</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>11.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1470,13 +1476,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>102</v>
@@ -1494,13 +1500,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>102</v>
@@ -1516,12 +1522,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="4" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="5">
-        <f>SUM(G2:G29)</f>
+      <c r="G32" s="5">
+        <f>SUM(G2:G30)</f>
         <v>301.92</v>
       </c>
     </row>
@@ -1535,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
